--- a/Dashboard/Parth/models.xlsx
+++ b/Dashboard/Parth/models.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Northeastern University\sem4\ML for Finance\INFO-7374-Machine-Learning-in-Finance-Repo\Dashboard\Parth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7020CDE-8318-4D61-AC41-BFCB62A8888E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A8CBC5-3FD6-4021-B461-00DE9EEF3082}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9F5FFF60-CA2A-4E76-B78A-D9FB12A6192E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9F5FFF60-CA2A-4E76-B78A-D9FB12A6192E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Model 1</t>
   </si>
@@ -79,6 +80,21 @@
   </si>
   <si>
     <t>P&amp;G + Fama French + S&amp;P_HC</t>
+  </si>
+  <si>
+    <t>Model 6</t>
+  </si>
+  <si>
+    <t>Sharpe</t>
+  </si>
+  <si>
+    <t>Treynor</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Hitrate</t>
   </si>
 </sst>
 </file>
@@ -310,65 +326,65 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -692,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339E3776-78EB-40C8-81D7-B28E9625A180}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -710,19 +726,19 @@
     <row r="1" spans="1:12" s="3" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="19" t="s">
         <v>4</v>
       </c>
     </row>
@@ -731,107 +747,107 @@
         <v>5</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="8">
+      <c r="C3" s="22"/>
+      <c r="D3" s="7">
         <v>0.97599999999999998</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>0.64600000000000002</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <v>0.98</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>0.86519999999999997</v>
       </c>
       <c r="H3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="25"/>
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="12">
+      <c r="C4" s="23"/>
+      <c r="D4" s="10">
         <v>0.83299999999999996</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>0.28499999999999998</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>0.83499999999999996</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="11">
         <v>-5.8929999999999998</v>
       </c>
       <c r="H4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="26">
         <v>5.87</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>1.51</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>5.8369999999999997</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <v>1.38</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>3.6030000000000002</v>
       </c>
       <c r="H5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="27"/>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>1.5669999999999999</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>3.2570000000000001</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>1.55</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="11">
         <v>10.052</v>
       </c>
       <c r="H6" s="2"/>
@@ -839,23 +855,23 @@
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="8">
+      <c r="C7" s="22"/>
+      <c r="D7" s="7">
         <v>8597.57</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>148.077</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="13">
         <v>2498.94</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>435.26</v>
       </c>
       <c r="H7" s="2"/>
@@ -863,21 +879,21 @@
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="25"/>
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="12">
+      <c r="C8" s="23"/>
+      <c r="D8" s="10">
         <v>259.27</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>69.551000000000002</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>60.06</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <v>5.633</v>
       </c>
       <c r="K8" s="2"/>
@@ -900,4 +916,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BDB3C5-9793-4A3D-B6DE-0391B66C930D}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dashboard/Parth/models.xlsx
+++ b/Dashboard/Parth/models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Northeastern University\sem4\ML for Finance\INFO-7374-Machine-Learning-in-Finance-Repo\Dashboard\Parth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A8CBC5-3FD6-4021-B461-00DE9EEF3082}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB85B0AB-BAF4-4F77-BB81-4A8D755927B5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{9F5FFF60-CA2A-4E76-B78A-D9FB12A6192E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Model 1</t>
   </si>
@@ -82,19 +82,34 @@
     <t>P&amp;G + Fama French + S&amp;P_HC</t>
   </si>
   <si>
-    <t>Model 6</t>
-  </si>
-  <si>
     <t>Sharpe</t>
   </si>
   <si>
     <t>Treynor</t>
   </si>
   <si>
-    <t>Profit</t>
-  </si>
-  <si>
-    <t>Hitrate</t>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>LR - PCA</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>ARIMA</t>
+  </si>
+  <si>
+    <t>Garch</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>Profit (BPS)</t>
+  </si>
+  <si>
+    <t>Hitrate (%)</t>
   </si>
 </sst>
 </file>
@@ -309,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -392,6 +407,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -927,75 +946,186 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
+      <c r="B1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>1.17</v>
+      </c>
+      <c r="C2">
+        <v>2.11</v>
+      </c>
+      <c r="D2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E2">
+        <v>0.05</v>
+      </c>
+      <c r="F2">
+        <v>0.95</v>
+      </c>
+      <c r="G2">
+        <v>1.27</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1.83</v>
+      </c>
+      <c r="C3">
+        <v>1.03</v>
+      </c>
+      <c r="D3">
+        <v>0.78</v>
+      </c>
+      <c r="E3">
+        <v>0.03</v>
+      </c>
+      <c r="F3">
+        <v>-0.69</v>
+      </c>
+      <c r="G3">
+        <v>-2.92</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>0.95</v>
+      </c>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
+      <c r="F5" s="29">
+        <v>1</v>
+      </c>
+      <c r="G5" s="29">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
+      <c r="E7" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8">
+        <v>0.36</v>
+      </c>
+      <c r="C8">
+        <v>0.37</v>
+      </c>
+      <c r="D8">
+        <v>0.97</v>
+      </c>
+      <c r="E8">
+        <v>0.82</v>
+      </c>
+      <c r="F8">
+        <v>5.86</v>
+      </c>
+      <c r="G8">
+        <v>1.47</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.84</v>
+      </c>
+      <c r="C9">
+        <v>0.84</v>
+      </c>
+      <c r="D9">
+        <v>0.82</v>
+      </c>
+      <c r="E9">
+        <v>0.22</v>
+      </c>
+      <c r="F9">
+        <v>0.68</v>
+      </c>
+      <c r="G9">
+        <v>0.56999999999999995</v>
       </c>
     </row>
   </sheetData>
